--- a/test/test.xlsx
+++ b/test/test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>@</t>
   </si>
@@ -88,9 +88,6 @@
   </si>
   <si>
     <t>false</t>
-  </si>
-  <si>
-    <t>5,6</t>
   </si>
 </sst>
 </file>
@@ -98,10 +95,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -113,14 +110,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -141,6 +138,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -148,16 +177,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,6 +192,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -186,71 +246,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,187 +262,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,8 +459,56 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -483,50 +528,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -542,17 +543,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -564,10 +561,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -576,144 +573,141 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1070,7 +1064,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1147,8 +1141,8 @@
         <v>1</v>
       </c>
       <c r="D8" s="2"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7">
@@ -1162,10 +1156,10 @@
       <c r="D9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G9" s="1" t="s">
@@ -1183,10 +1177,10 @@
       <c r="D10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="1" t="s">
@@ -1204,10 +1198,10 @@
       <c r="D11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G11" s="1" t="s">
@@ -1223,10 +1217,10 @@
       <c r="D12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="2">
         <v>1</v>
       </c>
       <c r="G12" s="1" t="s">
@@ -1242,15 +1236,13 @@
       <c r="D13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="2">
         <v>2</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1"/>

--- a/test/test.xlsx
+++ b/test/test.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="28800" windowHeight="12465" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="table" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="table2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="24">
   <si>
     <t>@</t>
   </si>
@@ -95,10 +95,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -109,6 +109,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -138,9 +153,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,14 +192,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -194,60 +208,46 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -262,25 +262,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -292,157 +442,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -453,6 +453,17 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -470,21 +481,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -509,6 +505,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -542,17 +553,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -561,10 +561,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -573,133 +573,133 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -707,10 +707,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1063,213 +1063,213 @@
   <sheetPr/>
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="1"/>
-      <c r="B8" s="2" t="s">
+      <c r="A8" s="2"/>
+      <c r="B8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="1"/>
-      <c r="B9" s="2" t="s">
+      <c r="A9" s="2"/>
+      <c r="B9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="1"/>
-      <c r="B10" s="2" t="s">
+      <c r="A10" s="2"/>
+      <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="1"/>
-      <c r="B11" s="2" t="s">
+      <c r="A11" s="2"/>
+      <c r="B11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="1"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2">
+      <c r="A12" s="2"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1">
         <v>1</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="1">
         <v>1</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="1"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2">
+      <c r="A13" s="2"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1">
         <v>2</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="1">
         <v>2</v>
       </c>
-      <c r="G13" s="1"/>
+      <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1281,14 +1281,121 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="B8:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetData>
+    <row r="8" spans="2:7">
+      <c r="B8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="1">
+        <v>2</v>
+      </c>
+      <c r="G13" s="2"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/test/test.xlsx
+++ b/test/test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>@</t>
   </si>
@@ -95,8 +95,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -117,22 +117,75 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -154,14 +207,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -169,85 +215,39 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -262,13 +262,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -280,169 +424,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -453,17 +453,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -480,7 +469,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -489,7 +478,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -509,16 +498,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -539,16 +528,27 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -561,10 +561,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -573,94 +573,109 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -669,37 +684,22 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1061,13 +1061,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:G13"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="2"/>
@@ -1145,7 +1145,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9" s="2"/>
       <c r="B9" s="1" t="s">
         <v>2</v>
@@ -1162,11 +1162,11 @@
       <c r="F9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="A10" s="2"/>
       <c r="B10" s="1" t="s">
         <v>8</v>
@@ -1183,11 +1183,11 @@
       <c r="F10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8">
       <c r="A11" s="2"/>
       <c r="B11" s="1" t="s">
         <v>14</v>
@@ -1204,11 +1204,11 @@
       <c r="F11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8">
       <c r="A12" s="2"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1">
@@ -1223,11 +1223,11 @@
       <c r="F12" s="1">
         <v>1</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:8">
       <c r="A13" s="2"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1">
@@ -1242,7 +1242,7 @@
       <c r="F13" s="1">
         <v>2</v>
       </c>
-      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2"/>
@@ -1284,115 +1284,57 @@
   <dimension ref="B8:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:G13"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <sheetData>
     <row r="8" spans="2:7">
-      <c r="B8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="2"/>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="2"/>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="2"/>
     </row>
     <row r="12" spans="2:7">
       <c r="B12" s="1"/>
-      <c r="C12" s="1">
-        <v>1</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="1">
-        <v>1</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="2"/>
     </row>
     <row r="13" spans="2:7">
       <c r="B13" s="1"/>
-      <c r="C13" s="1">
-        <v>2</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="1">
-        <v>2</v>
-      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
       <c r="G13" s="2"/>
     </row>
   </sheetData>

--- a/test/test.xlsx
+++ b/test/test.xlsx
@@ -8,15 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="table" sheetId="1" r:id="rId1"/>
-    <sheet name="table2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="25">
   <si>
     <t>@</t>
   </si>
@@ -88,6 +87,9 @@
   </si>
   <si>
     <t>false</t>
+  </si>
+  <si>
+    <t>@T</t>
   </si>
 </sst>
 </file>
@@ -110,6 +112,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -117,21 +134,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -168,8 +171,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -183,9 +210,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,8 +239,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,39 +249,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -262,49 +264,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -316,133 +438,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,11 +458,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -470,6 +478,17 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -498,6 +517,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -509,32 +537,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -561,10 +563,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -573,16 +575,16 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -591,115 +593,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1064,7 +1066,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="B8" sqref="B8:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1281,82 +1283,124 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B8:G13"/>
+  <dimension ref="C10:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <sheetData>
-    <row r="8" spans="2:7">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="2:7">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="2:7">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="2:7">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="2:7">
-      <c r="B12" s="1"/>
+    <row r="10" spans="3:8">
+      <c r="C10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="3:8">
+      <c r="C11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8">
       <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="2:7">
-      <c r="B13" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="3:8">
       <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="2"/>
+      <c r="D13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8">
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="3:3">
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="4:8">
+      <c r="D16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/test/test.xlsx
+++ b/test/test.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="26">
   <si>
     <t>@</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>false</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
   <si>
     <t>@T</t>
@@ -97,10 +100,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -112,36 +115,89 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -164,84 +220,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,187 +267,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,6 +458,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -475,28 +496,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -520,8 +523,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -563,10 +566,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -575,133 +578,133 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1066,7 +1069,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:H13"/>
+      <selection activeCell="C15" sqref="C15:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1255,14 +1258,25 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:8">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
+      <c r="C15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15"/>
+      <c r="H15" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2"/>
@@ -1283,17 +1297,17 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C10:H16"/>
+  <dimension ref="C10:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="10" spans="3:8">
       <c r="C10" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>2</v>
@@ -1307,7 +1321,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="3:8">
+    <row r="11" spans="3:10">
       <c r="C11" s="1" t="s">
         <v>1</v>
       </c>
@@ -1326,8 +1340,11 @@
       <c r="H11" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="3:8">
+      <c r="J11" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="3:10">
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
         <v>4</v>
@@ -1344,8 +1361,11 @@
       <c r="H12" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="13" spans="3:8">
+      <c r="J12" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="3:10">
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
         <v>5</v>
@@ -1362,8 +1382,11 @@
       <c r="H13" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="14" spans="3:8">
+      <c r="J13" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="3:10">
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
         <v>6</v>
@@ -1380,11 +1403,14 @@
       <c r="H14" s="1">
         <v>2</v>
       </c>
+      <c r="J14" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="3:3">
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="4:8">
+    <row r="16" spans="4:10">
       <c r="D16" s="2" t="s">
         <v>7</v>
       </c>
@@ -1398,6 +1424,9 @@
         <v>21</v>
       </c>
       <c r="H16" s="2"/>
+      <c r="J16" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/test/test.xlsx
+++ b/test/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465" activeTab="1"/>
+    <workbookView windowWidth="28245" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="table" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="39">
   <si>
     <t>@</t>
   </si>
@@ -41,6 +41,15 @@
     <t>数组</t>
   </si>
   <si>
+    <t>测试自定义</t>
+  </si>
+  <si>
+    <t>测试对象</t>
+  </si>
+  <si>
+    <t>测试booleanbug</t>
+  </si>
+  <si>
     <t>$k</t>
   </si>
   <si>
@@ -59,6 +68,15 @@
     <t>arr</t>
   </si>
   <si>
+    <t>testCus</t>
+  </si>
+  <si>
+    <t>testObj</t>
+  </si>
+  <si>
+    <t>bug</t>
+  </si>
+  <si>
     <t>$t</t>
   </si>
   <si>
@@ -74,6 +92,15 @@
     <t>number[]</t>
   </si>
   <si>
+    <t>obj</t>
+  </si>
+  <si>
+    <t>object</t>
+  </si>
+  <si>
+    <t>boolean[]</t>
+  </si>
+  <si>
     <t>a</t>
   </si>
   <si>
@@ -83,10 +110,22 @@
     <t>1,2,3,4</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>{"num":1}</t>
+  </si>
+  <si>
+    <t>true,false</t>
+  </si>
+  <si>
     <t>b</t>
   </si>
   <si>
     <t>false</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
   <si>
     <t>5</t>
@@ -100,10 +139,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -111,27 +150,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -150,8 +168,83 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -165,14 +258,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -181,8 +266,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -197,66 +290,12 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -267,13 +306,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -285,7 +426,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -297,157 +474,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,8 +503,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -473,8 +527,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -496,11 +565,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -522,39 +589,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -563,152 +602,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -717,6 +756,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1066,79 +1108,104 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15:H15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="9" max="9" width="12" customWidth="1"/>
+    <col min="11" max="11" width="16.375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="2"/>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>0</v>
       </c>
@@ -1148,10 +1215,13 @@
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="2"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>2</v>
       </c>
@@ -1167,130 +1237,265 @@
       <c r="F9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="G9" s="3"/>
+      <c r="H9" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="2"/>
+      <c r="I9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1">
         <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F12" s="1">
         <v>1</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="2"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1">
         <v>2</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F13" s="1">
         <v>2</v>
       </c>
-      <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J13" s="3"/>
+      <c r="K13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F15" s="1">
         <v>1</v>
       </c>
-      <c r="G15"/>
-      <c r="H15" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <ignoredErrors>
+    <ignoredError sqref="C15" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -1299,24 +1504,24 @@
   <sheetPr/>
   <dimension ref="C10:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="10" spans="3:8">
       <c r="C10" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -1329,10 +1534,10 @@
         <v>3</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G11" s="1">
         <v>1</v>
@@ -1341,7 +1546,7 @@
         <v>2</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="3:10">
@@ -1350,19 +1555,19 @@
         <v>4</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="3:10">
@@ -1371,19 +1576,19 @@
         <v>5</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="3:10">
@@ -1392,10 +1597,10 @@
         <v>6</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G14" s="1">
         <v>1</v>
@@ -1415,17 +1620,19 @@
         <v>7</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H16" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="H16" s="2">
+        <v>1</v>
+      </c>
       <c r="J16" s="2" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/test/test.xlsx
+++ b/test/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28245" windowHeight="12465"/>
+    <workbookView windowWidth="28800" windowHeight="12465" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="table" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
   <si>
     <t>@</t>
   </si>
@@ -129,9 +129,6 @@
   </si>
   <si>
     <t>5</t>
-  </si>
-  <si>
-    <t>@T</t>
   </si>
 </sst>
 </file>
@@ -139,10 +136,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -150,6 +147,126 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -161,8 +278,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -170,128 +288,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -306,31 +303,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -342,7 +465,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -354,139 +483,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -503,8 +500,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -524,30 +521,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -559,15 +532,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -589,6 +553,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -597,6 +570,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -605,10 +602,10 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -617,133 +614,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -754,10 +751,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1108,10 +1105,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1128,9 +1125,9 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1"/>
@@ -1140,9 +1137,9 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1"/>
@@ -1152,9 +1149,9 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1"/>
@@ -1164,9 +1161,9 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1"/>
@@ -1176,9 +1173,9 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1"/>
@@ -1188,9 +1185,9 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1"/>
@@ -1200,9 +1197,9 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1"/>
@@ -1216,11 +1213,11 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>2</v>
@@ -1237,19 +1234,21 @@
       <c r="F9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="3"/>
+      <c r="G9" s="2"/>
       <c r="H9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="J9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K9" t="s">
         <v>10</v>
       </c>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1"/>
@@ -1268,14 +1267,14 @@
       <c r="F10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="3"/>
+      <c r="G10" s="2"/>
       <c r="H10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="J10" s="2" t="s">
         <v>18</v>
       </c>
       <c r="K10" t="s">
@@ -1299,14 +1298,14 @@
       <c r="F11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="3"/>
+      <c r="G11" s="2"/>
       <c r="H11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="J11" s="2" t="s">
         <v>26</v>
       </c>
       <c r="K11" t="s">
@@ -1328,14 +1327,14 @@
       <c r="F12" s="1">
         <v>1</v>
       </c>
-      <c r="G12" s="3"/>
+      <c r="G12" s="2"/>
       <c r="H12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="I12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="J12" s="2" t="s">
         <v>32</v>
       </c>
       <c r="K12" t="s">
@@ -1357,14 +1356,14 @@
       <c r="F13" s="1">
         <v>2</v>
       </c>
-      <c r="G13" s="3"/>
+      <c r="G13" s="2"/>
       <c r="H13" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="I13" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J13" s="3"/>
+      <c r="J13" s="2"/>
       <c r="K13" t="s">
         <v>33</v>
       </c>
@@ -1377,9 +1376,9 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1"/>
@@ -1396,14 +1395,14 @@
       <c r="F15" s="1">
         <v>1</v>
       </c>
-      <c r="G15" s="3"/>
+      <c r="G15" s="2"/>
       <c r="H15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="I15" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J15" s="3"/>
+      <c r="J15" s="2"/>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1"/>
@@ -1413,81 +1412,81 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1502,140 +1501,14 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C10:J16"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData>
-    <row r="10" spans="3:8">
-      <c r="C10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="3:10">
-      <c r="C11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="1">
-        <v>1</v>
-      </c>
-      <c r="H11" s="1">
-        <v>2</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="3:10">
-      <c r="C12" s="1"/>
-      <c r="D12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="3:10">
-      <c r="C13" s="1"/>
-      <c r="D13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="3:10">
-      <c r="C14" s="1"/>
-      <c r="D14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" s="1">
-        <v>1</v>
-      </c>
-      <c r="H14" s="1">
-        <v>2</v>
-      </c>
-      <c r="J14" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="3:3">
-      <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="4:10">
-      <c r="D16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H16" s="2">
-        <v>1</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/test/test.xlsx
+++ b/test/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="table" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <t>@</t>
   </si>
   <si>
-    <t>A</t>
+    <t>$m</t>
   </si>
   <si>
     <t>//</t>
@@ -136,10 +136,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -150,6 +150,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -159,20 +175,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -181,59 +189,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,10 +217,57 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -262,33 +279,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -303,187 +303,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -494,6 +494,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -507,16 +531,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -537,25 +561,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -575,22 +590,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -602,10 +602,10 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -614,133 +614,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1107,8 +1107,8 @@
   <sheetPr/>
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1210,7 +1210,6 @@
         <v>1</v>
       </c>
       <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="2"/>
@@ -1503,7 +1502,7 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>

--- a/test/test.xlsx
+++ b/test/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="28125" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="table" sheetId="1" r:id="rId1"/>
@@ -15,16 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
-  <si>
-    <t>@</t>
-  </si>
-  <si>
-    <t>$m</t>
-  </si>
-  <si>
-    <t>//</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
   <si>
     <t>序号</t>
   </si>
@@ -50,9 +41,6 @@
     <t>测试booleanbug</t>
   </si>
   <si>
-    <t>$k</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
@@ -75,9 +63,6 @@
   </si>
   <si>
     <t>bug</t>
-  </si>
-  <si>
-    <t>$t</t>
   </si>
   <si>
     <t>number</t>
@@ -136,10 +121,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -150,60 +135,99 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,47 +241,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -272,21 +258,20 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -303,187 +288,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -497,50 +482,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -575,13 +523,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -594,6 +546,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -602,145 +587,145 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1108,7 +1093,7 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1203,12 +1188,8 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1"/>
-      <c r="B8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -1218,97 +1199,91 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1"/>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K9" t="s">
         <v>7</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K9" t="s">
-        <v>10</v>
       </c>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1"/>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K10" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1"/>
-      <c r="B11" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="K11" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1318,26 +1293,26 @@
         <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F12" s="1">
         <v>1</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="K12" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1347,24 +1322,24 @@
         <v>2</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F13" s="1">
         <v>2</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J13" s="2"/>
       <c r="K13" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1383,23 +1358,23 @@
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F15" s="1">
         <v>1</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J15" s="2"/>
     </row>

--- a/test/test.xlsx
+++ b/test/test.xlsx
@@ -15,7 +15,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
+  <si>
+    <t>id,name</t>
+  </si>
   <si>
     <t>序号</t>
   </si>
@@ -121,10 +124,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -136,74 +139,53 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,8 +199,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -241,19 +237,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -266,14 +261,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -288,85 +291,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -378,97 +465,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -482,13 +485,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -508,17 +515,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -534,15 +535,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -579,6 +571,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -587,10 +590,10 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -599,133 +602,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1093,7 +1096,7 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1189,7 +1192,9 @@
     <row r="8" spans="1:10">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -1201,29 +1206,29 @@
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
@@ -1232,58 +1237,58 @@
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1293,26 +1298,26 @@
         <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F12" s="1">
         <v>1</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1322,24 +1327,24 @@
         <v>2</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F13" s="1">
         <v>2</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J13" s="2"/>
       <c r="K13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1358,23 +1363,23 @@
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F15" s="1">
         <v>1</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J15" s="2"/>
     </row>
